--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560357/JX560357_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560357/JX560357_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89331451932</v>
+        <v>45441.83357100096</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1686_1687inst']</t>
+          <t>['1747_1795insgctctgagtacttcctacaacacggcatctttggtcgtacttcccaag', '1890_1903del', '1716_1843insaagagcgggccacgtcccaactggaacaccgatacccatgggcgaactattgaagggaggaacacttcataacagttatctacagcgtaggaacttaacggttgggttgtattcgctagccctcttg', '1760_1829insgatcctactagataaccgagacatatctagacgtatagcggcatattcttcgtcgtaacgtcgacgtgc', '1811_1952insgtgacccaaggatagtcttgcggagagcttgaaccgctcacactgtcacaatctcctcgtgcgaggctatcgtggataaacgcttcagccatcctgtatcgaattcccatctggcgttagcttgccagcattaaaagtttg']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.8933145425</v>
+        <v>45441.8335710367</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['682_683insg']</t>
+          <t>['641_752del', '689_828del', '629_711del', '647_759insaggtgcatagcgagctagagtcctctgtagagacgggtgacggtcaggcctagagtggaggtactttgggaaatcaaaaccgatggccctagtatacgtgtacatcagatac', '630_703del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89331456565</v>
+        <v>45441.83357106626</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3937_3938inst']</t>
+          <t>['3985_4075del', '3940_3963del', '4012_4039del', '3918_4051instacaacctttagtacgtgagtcgtcggaccgcgatgtcccacgtgtaagccccgtttatgaatttcctcaggctagaagcgtttcaagtaccttgacgaagcaggtcgatctcccacttgtcaatggataggc', '3921_4053del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89331470482</v>
+        <v>45441.83357109522</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1765_1765del']</t>
+          <t>['1915_2005del', '1716_1843del', '1742_1829del', '1879_1906instggagtaagcagagaagacatcttcta', '1743_1837del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['685_687insat']</t>
+          <t>['666_795insacacaccatcacgctgtgtctaggacttttcggttcgccgctagatgcaattaacaacctgaagtcgacccccaatgttggcctacttaagtagataagcatacttgtagcaagcggtggccgaaaaaa', '673_750inscgtattcgcggtagtgtgttattttgtaccttcttatcgccgaccaggccgttatgcgatcgtagccaccgtacgct', '659_777del', '692_805del', '656_799insgtaccagatcagtccgtagtaaccgtattgttcccaagcgtgaagaaatggatcatcaagaatctctacatctcccgatcgtaataagcggctaggtacccatgggcattttttaagttcccactgattagtgagactttggt']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89331472796</v>
+        <v>45441.83357111837</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1908_1910del']</t>
+          <t>['1826_1962del', '1917_1973del', '1862_1876instgggcgtttcatat', '1904_2039instcccctatacagttcaatgaggatgagtacctgtttaaggggccaccttcatggatgttatgcgctaaagatatgggatcacaatgcctgactcaggaccactggcgcttatccgtgggaaactctttgcctaaa', '1770_1871inscagtggtcacgggtagtcccaactaaaagtccgaaaggatggcccatggatggtggcctatacccagggagctatggttatgcccgcttctttatgttgtt']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3927_3930del']</t>
+          <t>['3976_4101del', '3928_3982del', '3964_4080instgtagtagagcaaggagaggcgagtgattgacttacgtggcttcggccatacggcaaaaatggatagtagctcttactcttaccgaggtgcgttaatctgagttagttcagtaccg', '4007_4020del', '3967_3983insttggaaaccctggggg']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89331475111</v>
+        <v>45441.83357114554</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['619_621insta']</t>
+          <t>['633_664insgacgtgcgtgcggagtggtaagcactccgta', '645_666del', '653_738del', '609_704insgcgtgacagggagtcgcgccccgcttttgaagcatatcactgagccgccgagtagaattacatgataaggatcagaaattcctccatccgaatac', '615_750del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3965_3968instta']</t>
+          <t>['3965_4115insggggggtgctgagatgtgactagtaatcatccccctatacttcccagcataatgtagcctatacgcatgtgctatgttgaccaaatctgctgaagataatacaatcggtactttgacaggcagtgtcataatgcagatagtgcgacatca', '3924_4045del', '4005_4027insccaaacagattcacctagtgcg', '4001_4041del', '3978_4050del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89331476847</v>
+        <v>45441.83357116212</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1812g&gt;c']</t>
+          <t>['1774_1785insatccattatcg', '1830_1977del', '1890_2032insttccaatctgtattacagtctccacccgttagcgctaggagagagaccctgcgtaataattaatttaactcaagacacgagtcaagctacatggtacatcaccaaggatgaagcccaccttcggtcacttcgttgagcatat', '1778_1912insttatagcgatcaacctgttcacacggacagtgtacccgggggagggaacgggaagttcttatgttgccggagttaactggaatctatctcgaactttccgccaaagtaacctttacggataagaaatgcagccc', '1772_1807del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['618_623insgcata']</t>
+          <t>['688_762insctgtgatctccctatggcacaatagggtatcgacgcaggctaaaatacttgtagtcgactgcatacttccgagt', '614_762insgcccaaacatatcttgagcaaagacgcgaataccattacagtgacatggaggcgcttgctatggcgtcggaaccagtctttgccgccccttctcccacaaaacggtctagtcttaatttcaacaccttcttctgtattttgaagccgg', '650_775del', '652_701inscacgtgcatattgttggccccaataaaaccttcaggaatcagtgtgcat', '663_743instgcgttattccacgcgtttcgttggccccttctttactagtcatatggaactagaactgaactgggctagctctcgttac']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3997_4001del']</t>
+          <t>['3976_4055insattggatctctccggcagtcccctcctccccgagtgatggagaccagcttccaacgttgaatagtactccgctgtttac', '3928_3962del', '3964_4049inscttgctcagtccgtactgcgtaccattacggttcccgatagcgatcgggcctagtcctcaagttagcccctgtaggttctgtgta', '3918_4053del', '3941_4062del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89331479162</v>
+        <v>45441.83357119642</v>
       </c>
     </row>
   </sheetData>
